--- a/Testcase Generate from Gitlab/input/Testcase-template.xlsx
+++ b/Testcase Generate from Gitlab/input/Testcase-template.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testcase\RPA\erp-web\Testcase-Issue-40\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\RPA\RPA-Generate-Testcase-From-Gitlab\Testcase Generate from Gitlab\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
-    <sheet name="PSR" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -91,55 +90,16 @@
     <t>ERP site</t>
   </si>
   <si>
-    <t>Page is opened</t>
-  </si>
-  <si>
     <t>Site is Opened</t>
   </si>
   <si>
-    <t>Open page PSR</t>
-  </si>
-  <si>
-    <t>Should show document detail</t>
-  </si>
-  <si>
-    <t>Open Page Pricing Study Request detail by select an Item with status difference "Edit"</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Check Recommended Supplier field can be empty</t>
-  </si>
-  <si>
-    <t>Click button "Clear" next by field Recommended Supplier</t>
-  </si>
-  <si>
-    <t>Click Save button</t>
-  </si>
-  <si>
-    <t>Tab #XXX Pricing Study Request is opened</t>
-  </si>
-  <si>
-    <t>Field Recommended Supplier should clear</t>
-  </si>
-  <si>
-    <t>Field is clean</t>
-  </si>
-  <si>
-    <t>Document should be saved successful</t>
-  </si>
-  <si>
-    <t>Document is saved successfully</t>
-  </si>
-  <si>
-    <t>Document should show Page Pricing Study Request</t>
-  </si>
-  <si>
     <t>Test PR - Status change</t>
+  </si>
+  <si>
+    <t>Today</t>
   </si>
 </sst>
 </file>
@@ -149,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,13 +149,6 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -325,12 +278,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -367,13 +319,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -381,36 +333,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -418,9 +340,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
@@ -436,27 +355,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -471,49 +413,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>343294</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44664</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="317500"/>
-          <a:ext cx="7658494" cy="4172164"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -779,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:K12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -793,19 +692,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1">
         <v>43</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -814,29 +713,29 @@
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -852,10 +751,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -880,29 +779,27 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23">
-        <v>44984</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="18" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="13"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -921,37 +818,37 @@
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="7"/>
       <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="3"/>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -961,12 +858,12 @@
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="3"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="31"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -976,12 +873,12 @@
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="31"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -991,12 +888,12 @@
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -1019,9 +916,7 @@
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1033,195 +928,66 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="32" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="32" t="s">
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="31" t="s">
-        <v>24</v>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="31" t="s">
-        <v>28</v>
+      <c r="I18" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <f>1+A18</f>
-        <v>2</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <f t="shared" ref="A20" si="0">1+A19</f>
-        <v>3</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>4</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>5</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
+  <mergeCells count="33">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1236,31 +1002,28 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F22:H22" location="Sheet1!A1" display="Document is saved successfully"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Testcase Generate from Gitlab/input/Testcase-template.xlsx
+++ b/Testcase Generate from Gitlab/input/Testcase-template.xlsx
@@ -93,13 +93,13 @@
     <t>Site is Opened</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
     <t>Test PR - Status change</t>
   </si>
   <si>
     <t>Today</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -319,27 +319,60 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
@@ -355,47 +388,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -692,19 +692,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1">
         <v>43</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -713,29 +713,29 @@
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="34" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -751,10 +751,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="10"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -779,27 +779,27 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="33" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -818,37 +818,37 @@
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="7"/>
       <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="3"/>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -858,12 +858,12 @@
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="3"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -873,12 +873,12 @@
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -888,12 +888,12 @@
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -928,66 +928,85 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="21" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="31" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="15" t="s">
-        <v>24</v>
+      <c r="I18" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1002,25 +1021,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
